--- a/Document/Work_Estimate_PROSOUL.xlsx
+++ b/Document/Work_Estimate_PROSOUL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anuradha\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prosoul_projects\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB98175A-660C-4AF0-97C6-B625DF6F72E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C919ABE-3ACA-4454-B168-01E5CAD4B090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{5F0C9D4C-AB25-493F-9A09-BE5A7B5A1A8A}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>MASTER</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>PENDING</t>
+  </si>
+  <si>
+    <t>PROGRESS</t>
   </si>
 </sst>
 </file>
@@ -173,7 +176,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -182,10 +188,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +507,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +541,7 @@
       <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -549,7 +552,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
@@ -558,11 +561,11 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -572,9 +575,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="7"/>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -584,9 +587,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="7"/>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -596,10 +599,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
@@ -616,15 +619,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H8" t="s">
@@ -632,160 +635,160 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="5"/>
       <c r="H9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="5"/>
       <c r="H10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="5"/>
       <c r="H11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="5"/>
       <c r="H12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="6"/>
       <c r="F15" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="5"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="6"/>
       <c r="F16" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="5"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="6"/>
       <c r="F17" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="5"/>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="6"/>
       <c r="F18" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="5"/>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="5"/>
       <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="6"/>
       <c r="F19" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="5"/>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -793,13 +796,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G8:G12"/>
     <mergeCell ref="B7:B13"/>
     <mergeCell ref="A7:A13"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="G14:G19"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G8:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/Work_Estimate_PROSOUL.xlsx
+++ b/Document/Work_Estimate_PROSOUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prosoul_projects\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C919ABE-3ACA-4454-B168-01E5CAD4B090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2248DDDF-6610-4821-A279-12C0B2293E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{5F0C9D4C-AB25-493F-9A09-BE5A7B5A1A8A}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>MASTER</t>
   </si>
@@ -64,15 +64,6 @@
     <t>SUB-MENU</t>
   </si>
   <si>
-    <t>ANAND</t>
-  </si>
-  <si>
-    <t>ANKUSH</t>
-  </si>
-  <si>
-    <t>VIVEK</t>
-  </si>
-  <si>
     <t>RESOURCE</t>
   </si>
   <si>
@@ -124,10 +115,22 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>PENDING</t>
-  </si>
-  <si>
-    <t>PROGRESS</t>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>Ankush</t>
+  </si>
+  <si>
+    <t>Vivek</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>GROUP MASTER</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -169,26 +172,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB030ED8-4396-4A95-81A2-3BD97BDD7224}">
-  <dimension ref="A2:J20"/>
+  <dimension ref="A2:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,293 +526,320 @@
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G6" s="2"/>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="H8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="G9" s="8"/>
       <c r="H9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="G10" s="8"/>
       <c r="H10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="G11" s="8"/>
       <c r="H11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="G12" s="8"/>
       <c r="H12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="2"/>
+      <c r="D20" s="9"/>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="G8:G12"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="G15:G20"/>
   </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H52:H148" xr:uid="{8F7C207A-67A8-47DE-BC06-50610F870E3A}">
+      <formula1>"Progress,Pending,Complete"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H51" xr:uid="{02DEF637-CA0D-4FD9-AD84-3BF94E9AEFCB}">
+      <formula1>"Progress,Pending,Complete,Need to discuss"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F64" xr:uid="{28D56488-D41C-449B-8F87-8AE73D4BB469}">
+      <formula1>"Anand,Vivek,Ankit,Ankush,Pritam"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -813,11 +849,16 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B2:B7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D7" xr:uid="{D71BE3CE-29EA-468B-BE7D-20A63DD0814F}">
+      <formula1>"anand,pritam,vivek,ankush,ankit"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>